--- a/仕様書/Masterの仕様書/プレイヤーの仕様.xlsx
+++ b/仕様書/Masterの仕様書/プレイヤーの仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>BBAの新仕様</t>
     <rPh sb="4" eb="5">
@@ -163,6 +163,356 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し黒い</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くろこげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉になったら自動的に落ちる</t>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床におちる　</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落ちた肉を拾うとBBAが自動的に肉を食べる</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>肉を食べると一定時間（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>１０秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ほど）移動速度が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>２倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になる</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ニク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤色はプランナーが変えられるようにしておいてください</t>
+    <rPh sb="0" eb="2">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの周りにキラキラエフェクトを出す</t>
+    <rPh sb="6" eb="7">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こういうやつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBAの新仕様２</t>
+    <rPh sb="4" eb="7">
+      <t>シンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートをける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートをけりとばして前にとばす</t>
+    <rPh sb="10" eb="11">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの手元からカートとかごは離れる</t>
+    <rPh sb="6" eb="8">
+      <t>テモト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>離れたカートが敵とぶつかったらカートに乗る</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートが壁などにぶつかった場合その場にとまる</t>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この行動はカート一台の時のみできる</t>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチダイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルカートを（手でおして）飛ばす</t>
+    <rPh sb="8" eb="9">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張りてみたいな感じの動きで右手のカートを押し出す</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ミギテ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押し出したあとのカートの効果はカートを蹴り飛ばしたときと同じ</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要：威力調整</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要：威力調整</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBAの新仕様３</t>
+    <rPh sb="4" eb="7">
+      <t>シンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBAはステージ上にいる馬に乗ることができる</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>馬に乗ることで馬にカートをつなげて走ることができる</t>
+    <rPh sb="0" eb="1">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -171,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +531,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -207,8 +565,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -235,6 +594,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>227481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B300A-9FFD-4804-B205-8B089413B0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2416471" y="5957686"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -1735,15 +2152,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>240582</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>326307</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>27649</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>113374</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1772,7 +2189,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7784382" y="2971800"/>
+          <a:off x="7870107" y="2724150"/>
           <a:ext cx="1844467" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1842,6 +2259,4597 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>158564</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>35553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="楕円 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{829A9542-BC71-4BD8-8418-9BC2A8C20F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1738593" y="6204137"/>
+          <a:ext cx="470647" cy="420475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>351864</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>36980</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923D95DE-FD36-4F95-BD4B-E1A7E978B2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2402540" y="5920068"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00939AAF-AB94-4601-A3EE-FCAF01007029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2431675" y="5601820"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16406</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>192897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>73246</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EF696A-6AE8-4FC8-894D-384FC1FCDADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="4890850">
+          <a:off x="3989297" y="5733800"/>
+          <a:ext cx="997323" cy="740399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253304</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F352DF1C-C3AF-41D4-A6C0-173051782C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1904999" y="4829735"/>
+          <a:ext cx="1766099" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286171</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>174263</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>214483</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矢印: 右 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{376A7DCD-3559-4579-80F8-8F4184811891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5754642" y="5787907"/>
+          <a:ext cx="571650" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9271AF-E6E3-483D-AFCB-08DCB9EF49A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6790765" y="6196853"/>
+          <a:ext cx="470647" cy="420475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18896</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD098A1-AC7B-4EE5-9BD1-349A522A37CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7477047" y="6020440"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522193</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C78FA0F-2041-4C38-A19F-5F04DA121DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7357781" y="5922308"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>510987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A885F5-1A83-4BB0-AC86-5AABC1620E2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7346575" y="5541308"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>325688</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>222033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>382528</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24E2923-53A8-4342-ACD3-D2C5C270807F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="4890850">
+          <a:off x="7032814" y="5998260"/>
+          <a:ext cx="997323" cy="740399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504266</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="星: 4 pt 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EAEF28-A17E-4277-89E2-0748A6C67179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504266" y="8841441"/>
+          <a:ext cx="773206" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>488578</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>578225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="星: 4 pt 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4B57A5-EACD-4ED3-8F75-333A7D1CF9D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1172137" y="9610165"/>
+          <a:ext cx="773206" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327213</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>181535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>416860</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="星: 4 pt 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF8FBF1-9C22-491D-B939-082A0D5DDCE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327213" y="10300447"/>
+          <a:ext cx="773206" cy="582706"/>
+        </a:xfrm>
+        <a:prstGeom prst="star4">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>501464</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>288552</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="楕円 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C03960-6659-43DC-91E4-0287156B16B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="501464" y="11937066"/>
+          <a:ext cx="470647" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>384924</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>208428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="楕円 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5DB990-6F62-4683-83C9-9D9F4F6BD220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20441759">
+          <a:off x="672353" y="12414435"/>
+          <a:ext cx="396130" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>232270</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285498</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A211E84-C64E-42FE-B904-C2DEAD50ABAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3434396">
+          <a:off x="1134356" y="12103103"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>93317</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146545</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="楕円 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5D5556-1FB8-47C1-BF4E-99389DBC90A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3434396">
+          <a:off x="311844" y="12490828"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327494</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>116750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>536016</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>181160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="楕円 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6B6048-EECC-47E3-817B-B19234EE63E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4836793">
+          <a:off x="1307227" y="12528047"/>
+          <a:ext cx="299733" cy="892081"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>598713</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>193492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214887</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>224309</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="楕円 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB13E080-267D-4D9D-BAA7-8751B649F80D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1249841">
+          <a:off x="598713" y="12900963"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79408</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>53794</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC08BC6F-2237-472D-B13F-396E1E46FB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2752647" y="12487358"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100855</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="星: 7 pt 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C2B4E33-255D-4F37-83FC-63D1DAE94CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2400717">
+          <a:off x="1714501" y="12550590"/>
+          <a:ext cx="1120589" cy="739588"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>645458</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175778</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13CA5B05-9772-4EB3-8045-C322CA7E020B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4899694" y="12449259"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>201707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CC76809-BB91-4470-B9B1-31A1EE100CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3619500" y="12673854"/>
+          <a:ext cx="1030941" cy="56029"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>589429</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B404D6A0-B086-4532-ADDA-FC713AF94A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3659841" y="12837459"/>
+          <a:ext cx="1030941" cy="56029"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271182</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>159123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>215152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C73CA6-3BA9-4C91-9EF6-6BAEB489679E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3688976" y="13101917"/>
+          <a:ext cx="1030941" cy="56029"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>56027</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100851</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>182729</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29D97B1-635F-450B-A746-E79AD373CB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4840939" y="12729880"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>611839</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>29132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>656663</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>189452</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCA8E9A-405F-485E-B257-26A86184B21E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2662515" y="12736603"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="図 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D42ED512-B7E9-4C45-BC55-1D0E1CB2EAF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11034361" flipH="1">
+          <a:off x="5614146" y="11844617"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2241</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>216120</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>8</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F47756-575A-4667-AF59-89D100F50931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7674271" y="12433572"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>40339</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>208428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85163</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CA026C-6DB4-40BD-BAD5-4C54DDB1BF8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7559486" y="12680575"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>116152</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20557</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66165F29-AA52-439A-AA00-C65DE9397BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18819169" flipH="1">
+          <a:off x="7548280" y="12344400"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202719</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>141058</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>172901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="星: 7 pt 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A833A0E-E09C-4C0A-A8F3-372001071CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2400717">
+          <a:off x="5671190" y="12377938"/>
+          <a:ext cx="621897" cy="502434"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544C716C-A392-4108-89E0-0112287C261F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560295" y="16248530"/>
+          <a:ext cx="470647" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488579</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>275667</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="楕円 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC688255-34D3-47F9-9FF4-BE100B7DD3CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1121771">
+          <a:off x="488579" y="16692283"/>
+          <a:ext cx="470647" cy="811305"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261405</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>158766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314633</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>223176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="楕円 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC59473-2DF6-4464-B3AD-C37EF8423A66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1163491" y="16648210"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>75481</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>217360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="楕円 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CE0F78-0CD8-4C7E-8DB1-6A93C01E9E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6126526">
+          <a:off x="1005273" y="16914421"/>
+          <a:ext cx="312913" cy="805380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>568674</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="楕円 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CDF0B5-8103-4B6F-9EC4-C318A54C8656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1249841">
+          <a:off x="268941" y="17313088"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589430</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>216834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="楕円 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8129B048-FD4C-4BD1-9E86-49AD96DF62BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20731430">
+          <a:off x="589430" y="17364635"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>437997</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEACB27E-6184-4020-AC75-0FB51F3781EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1744118" y="16487853"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129988</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343868</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>228602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E7A2319-B7D0-4715-B803-7CCB68BB6A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1649989" y="17133313"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349620</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>35855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394445</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>196175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F3E012-A616-4517-8444-82C555C6F9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1716738" y="16743826"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>199461</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>221873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244286</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE7D55F5-A1DE-4443-AC56-8B84624CD31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1566579" y="17400491"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560444</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="矢印: 右 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471A4865-70BD-41B6-A373-5FE358A56577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723029" y="16719177"/>
+          <a:ext cx="571650" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="楕円 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AA19BE8-333C-4E82-A3B4-FB617256FB31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560295" y="16248530"/>
+          <a:ext cx="470647" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>488579</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>275667</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="楕円 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69334B88-68A2-4302-8383-FBD2EC27B205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1121771">
+          <a:off x="488579" y="16692283"/>
+          <a:ext cx="470647" cy="811305"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261405</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>158766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314633</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>223176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="楕円 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D943E0A-9C76-47B2-8701-769C4D2B1928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1163491" y="16648210"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>75481</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>217360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197302</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="楕円 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC929FBD-9461-4C3B-8488-DE0D9AA367B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6126526">
+          <a:off x="1005273" y="16914421"/>
+          <a:ext cx="312913" cy="805380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>568674</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="楕円 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2E6FF9-7202-43CC-A5A5-9C2DD13394C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1249841">
+          <a:off x="268941" y="17313088"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>589430</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>216834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="楕円 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33ED6E0-62C5-4E13-96CB-DB5BD78C6BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20731430">
+          <a:off x="589430" y="17364635"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>437997</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D749748-3391-41D8-9CE0-DC9A40C828DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1744118" y="16487853"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129988</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>343868</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>228602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC50A87-E588-4AED-B3BC-63FC29F7AC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1649989" y="17133313"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>349620</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>35855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394445</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>196175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A9BFB9-A0FA-4899-938B-53C009C42B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1716738" y="16743826"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>199461</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>221873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244286</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA23052C-44F3-459C-A119-A0DB25DEF818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1566579" y="17400491"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560444</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>85547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矢印: 右 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C8D463-26AA-4EC8-99CA-A65A92EDC819}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723029" y="16719177"/>
+          <a:ext cx="571650" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="楕円 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8ACF221-7EAF-4F93-ACC7-0EF2AB19932B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560295" y="16248530"/>
+          <a:ext cx="470647" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488579</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275667</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="楕円 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4430ABE-3883-4A51-98A5-1A00216366C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1121771">
+          <a:off x="488579" y="16692283"/>
+          <a:ext cx="470647" cy="811305"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552757</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>125148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>189558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="楕円 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F0E9DC-22F1-481F-8F96-F4C506744870}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4311908" y="16491762"/>
+          <a:ext cx="299733" cy="982448"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568674</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="楕円 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2052A067-F3AB-4B5A-8A55-188119D13B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1249841">
+          <a:off x="268941" y="17313088"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589430</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>216834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="楕円 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02E697D0-6CE4-48AE-8B6B-7E5DCADAAA92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20731430">
+          <a:off x="589430" y="17364635"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>212913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>325938</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="正方形/長方形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE0A2DC-846C-48F5-AE75-D5DADBF0590A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5049854" y="16532676"/>
+          <a:ext cx="591671" cy="897439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>331694</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>230842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>545574</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>116543</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B106723-9C3C-4AF1-8A4E-77318FAFBFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4585931" y="17256576"/>
+          <a:ext cx="591671" cy="897439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170326</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>91885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215151</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>16881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956B20BE-B559-47A1-B26D-26DC88C883F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4955238" y="16799856"/>
+          <a:ext cx="728384" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>389961</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>87404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434786</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="正方形/長方形 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D41A815-F5C6-4BD0-8F7F-2EE3B6484DCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4491314" y="17501345"/>
+          <a:ext cx="728384" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201855</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>175194</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="矢印: 右 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEE4684-7BBC-4CB9-A7E6-AF6D31E2297F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6465794" y="17044147"/>
+          <a:ext cx="571649" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="楕円 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C053AD30-144A-451D-BFEA-2A40A3DDFEFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560295" y="16248530"/>
+          <a:ext cx="470647" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>488579</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>219636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>275667</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="楕円 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD9C460-BAA6-4A1E-A10D-5B66F3B98E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1121771">
+          <a:off x="488579" y="16692283"/>
+          <a:ext cx="470647" cy="811305"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568674</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165287</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="楕円 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42B8B32-AE8B-4BD9-B786-6A4DCCD2B719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1249841">
+          <a:off x="268941" y="17313088"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589430</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>216834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="楕円 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7F561E-7E96-4CDD-9956-5C16B45DB7E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20731430">
+          <a:off x="589430" y="17364635"/>
+          <a:ext cx="299733" cy="736787"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>201857</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>63135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="矢印: 右 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EBDF7C5-CC66-400C-8728-301681C451FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9883590" y="16932088"/>
+          <a:ext cx="571649" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80498</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>197531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393411</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>198420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="楕円 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2765C6F8-1BF5-4C47-B9E2-B7E113D1C2B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8137579">
+          <a:off x="4181851" y="16905502"/>
+          <a:ext cx="312913" cy="706859"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>454958</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>668838</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097C2D47-E0E8-4FEA-A398-8BCBE22C15AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8126989" y="16718693"/>
+          <a:ext cx="591671" cy="897439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>558050</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>20167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>602875</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>180486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B16B1E6-2C9A-4B07-BDD8-26A433374144}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="8077197" y="16963461"/>
+          <a:ext cx="728384" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>5574</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>211081</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="星: 7 pt 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91DBE3CD-395D-4245-A0CB-621D35F1518B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2400717">
+          <a:off x="8953501" y="16887265"/>
+          <a:ext cx="621897" cy="502434"/>
+        </a:xfrm>
+        <a:prstGeom prst="star7">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="図 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C473E7C-102C-4F4A-B977-C6DDDBC17E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="11034361" flipH="1">
+          <a:off x="8202706" y="16237324"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>499784</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>387874</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="矢印: 右 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DB4603-2BE4-4FF6-9FBC-2D4A5165641A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6651813" y="12646959"/>
+          <a:ext cx="571649" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68202</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>199466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="正方形/長方形 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53C749B-1874-4387-9D06-BD90C46A8350}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10944147" y="16868853"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>70672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="正方形/長方形 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A341C69-A8B4-41C6-ADA4-F17F6C61E8EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10858500" y="17088970"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>671964</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>206575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="図 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451BEB51-74B1-49DD-96A5-A999C0FA1ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18819169" flipH="1">
+          <a:off x="10838327" y="16766241"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2108,57 +7116,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="E13" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13">
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13">
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/仕様書/Masterの仕様書/プレイヤーの仕様.xlsx
+++ b/仕様書/Masterの仕様書/プレイヤーの仕様.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>BBAの新仕様</t>
     <rPh sb="4" eb="5">
@@ -488,31 +488,387 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BBAはステージ上にいる馬に乗ることができる</t>
-    <rPh sb="8" eb="9">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
+    <t>馬に乗ることで馬にカートをつなげて走ることができる</t>
+    <rPh sb="0" eb="1">
       <t>ウマ</t>
     </rPh>
-    <rPh sb="14" eb="15">
+    <rPh sb="2" eb="3">
       <t>ノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>馬に乗ることで馬にカートをつなげて走ることができる</t>
+    <t>かご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ的には馬車</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うまはカーブ中にひもに引っかかったものと馬にぶつかったものをかごに乗せる</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なめらかに曲がる感じで</t>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBAはステージ上にいる馬に乗ることができる（うまを轢くと自動的に乗る）</t>
+    <rPh sb="8" eb="9">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプして飛び乗るアニメーションと演出をいれる</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩くとダッシュの二種類の移動方法がある</t>
     <rPh sb="0" eb="1">
-      <t>ウマ</t>
+      <t>アル</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニシュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティックを前に押し込みでダッシュする</t>
+    <rPh sb="6" eb="7">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８方向対応</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動き自体はカート持ってるBBAと同じ動き</t>
+    <rPh sb="0" eb="1">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアアップの仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗せ方のパターンでレジに通したときのスコアが変わる</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンはスコアパターンの仕様書で説明する</t>
+    <rPh sb="13" eb="16">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３個ずつでパターンを作る</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三つでパターン作成</t>
+    <rPh sb="0" eb="1">
+      <t>ミッ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三個ならんでいる状態でスコアアップ</t>
+    <rPh sb="0" eb="2">
+      <t>サンコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンの上に別のパターンが乗っていたらさらにスコアアップ</t>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>ノ</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ハシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中で違うパターンがまざっていたら</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアアップにならない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一番上の物を落とす仕様</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートを前に傾かせて一番上の物を前に吹っ飛ばす</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁などの障害物が前にある時はできない</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2を二回入力でものを落とす</t>
+    <rPh sb="3" eb="5">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルカート状態のとき</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二つの動作を足してやりたいこと</t>
+    <rPh sb="0" eb="1">
+      <t>フタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルカート中に押し出されたカート</t>
+    <rPh sb="6" eb="7">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キックで飛ばされたカート</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ただし、崩れやすい</t>
+    <rPh sb="4" eb="5">
+      <t>クズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,6 +932,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF808080"/>
       <color rgb="FFFD7403"/>
     </mruColors>
   </colors>
@@ -592,196 +949,20 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>227481</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426791</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>113181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B300A-9FFD-4804-B205-8B089413B0C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2416471" y="5957686"/>
-          <a:ext cx="591671" cy="897438"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114304</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>299604</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>4</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1169E24-3C3D-457C-8EF9-0AA5EE225D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="921327" y="1869502"/>
-          <a:ext cx="600075" cy="899679"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>158564</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>178428</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="楕円 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04894AF9-A5DD-4363-A2D0-0134DD333F36}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="371475" y="2133600"/>
-          <a:ext cx="472889" cy="426078"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="810163" cy="636126"/>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>548216</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>68421</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B6E887-81AD-41A6-AE87-614D05CFA435}"/>
+        <xdr:cNvPr id="277" name="図 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3722B67-BD8A-42B8-BF1D-EE904CCB674D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -802,8 +983,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="819150" y="1876425"/>
+        <a:xfrm rot="18819169" flipH="1">
+          <a:off x="13387983" y="14361297"/>
           <a:ext cx="810163" cy="636126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -813,20 +994,563 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>363231</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>573907</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>5685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="正方形/長方形 273">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C819AFA4-567B-4523-8DCE-662DAD89F959}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16836641" y="14934919"/>
+          <a:ext cx="601356" cy="891034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>219633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="正方形/長方形 250">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2D2284-F833-4150-8CF4-EDA41C5B0332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="0" y="16226117"/>
+          <a:ext cx="14029764" cy="1878104"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>672351</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="正方形/長方形 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB05FB06-1B43-4749-9C86-4A44711B27EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="56029" y="11790824"/>
+          <a:ext cx="10186146" cy="2003615"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>248770</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>80688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47066</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>125510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="楕円 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7F1391-9A0A-4790-A6AF-AC5D0621EF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9908243" y="36230863"/>
+          <a:ext cx="986116" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466551</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>145122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9868</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>62187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="正方形/長方形 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E93CC5-2BA7-4906-A453-0C1AB1FA6962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1227944">
+          <a:off x="9352816" y="35443651"/>
+          <a:ext cx="1593993" cy="858360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>383243</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>159128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181538</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>203952</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="楕円 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43860547-179F-4021-93C6-32126166C0F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3890685" y="36073980"/>
+          <a:ext cx="986118" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>179293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>277908</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258A5055-43C4-479B-9D49-2117A4A3884A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3350560" y="36889764"/>
+          <a:ext cx="1712260" cy="813547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="正方形/長方形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F844A68-62FF-456C-932E-31B9B41A3530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3631825" y="36530055"/>
+          <a:ext cx="1196790" cy="2162736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>656667</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>85163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85168</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>105335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="正方形/長方形 234">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D211564A-3C20-42EC-9A66-B7133AA88773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6485369">
+          <a:off x="9342346" y="35371366"/>
+          <a:ext cx="1196790" cy="2162736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="810163" cy="636126"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246414</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>113558</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2225716" cy="1720307"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D29EC26-E22C-44E1-B456-4EC260E0FB4D}"/>
+        <xdr:cNvPr id="132" name="図 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A717954F-6A72-4BC5-AA49-16A2C84CC03C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -847,9 +1571,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="809625" y="1533525"/>
-          <a:ext cx="810163" cy="636126"/>
+        <a:xfrm rot="1375660">
+          <a:off x="4347767" y="19880734"/>
+          <a:ext cx="2225716" cy="1720307"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,20 +1582,257 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537880</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>201704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="正方形/長方形 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72241775-177F-4F28-B5D0-C1D47BF69826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4639233" y="20910175"/>
+          <a:ext cx="2039472" cy="1120588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>227481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>113181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80B300A-9FFD-4804-B205-8B089413B0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2416471" y="5957686"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>299604</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1169E24-3C3D-457C-8EF9-0AA5EE225D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="922167" y="1844009"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158564</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04894AF9-A5DD-4363-A2D0-0134DD333F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="2111188"/>
+          <a:ext cx="470648" cy="420475"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810163" cy="636126"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315A5C6B-4A03-4BFD-8307-36E43A17F496}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B6E887-81AD-41A6-AE87-614D05CFA435}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,6 +1854,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
+          <a:off x="819150" y="1876425"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D29EC26-E22C-44E1-B456-4EC260E0FB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="809625" y="1533525"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315A5C6B-4A03-4BFD-8307-36E43A17F496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
           <a:off x="762000" y="1190625"/>
           <a:ext cx="810163" cy="636126"/>
         </a:xfrm>
@@ -5163,6 +6214,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -5764,6 +6818,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -5822,67 +6879,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>170326</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>91885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215151</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>16881</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="正方形/長方形 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956B20BE-B559-47A1-B26D-26DC88C883F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="4955238" y="16799856"/>
-          <a:ext cx="728384" cy="395643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -6035,16 +7031,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>560295</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347383</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>64434</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628331</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>79241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415419</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>132470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6059,8 +7055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="560295" y="16248530"/>
-          <a:ext cx="470647" cy="523875"/>
+          <a:off x="6071188" y="15019884"/>
+          <a:ext cx="467445" cy="543086"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6399,15 +7395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>454958</xdr:colOff>
+      <xdr:colOff>454957</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>163606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>668838</xdr:colOff>
+      <xdr:colOff>668837</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>49307</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6422,72 +7418,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8126989" y="16718693"/>
-          <a:ext cx="591671" cy="897439"/>
+          <a:off x="8123627" y="16722054"/>
+          <a:ext cx="598394" cy="897439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>558050</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>20167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>602875</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>180486</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="正方形/長方形 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B16B1E6-2C9A-4B07-BDD8-26A433374144}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="8077197" y="16963461"/>
-          <a:ext cx="728384" cy="395643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6718,66 +7656,8 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>649942</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>70672</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="正方形/長方形 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A341C69-A8B4-41C6-ADA4-F17F6C61E8EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="10858500" y="17088970"/>
-          <a:ext cx="728383" cy="395643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="FF0000"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6841,6 +7721,4887 @@
       <xdr:spPr>
         <a:xfrm rot="18819169" flipH="1">
           <a:off x="10838327" y="16766241"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>616323</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>487577</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="図 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1708D5CF-8D81-433F-9AA0-BDB787245ED5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="616323" y="20641236"/>
+          <a:ext cx="3289048" cy="2101966"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638733</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>89652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F5A325-68EC-48D3-9726-C833F7125C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5065058" y="20719682"/>
+          <a:ext cx="1075764" cy="2375645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線コネクタ 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F290BF-23B9-4A04-B636-3DB2D7729B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647265" y="21380824"/>
+          <a:ext cx="3104029" cy="874059"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="136525"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB7FDCF-B7C6-48B1-8C51-B53CF6C95A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3798794" y="21963530"/>
+          <a:ext cx="2" cy="818029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="楕円 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F18AEC7-9CCC-418F-84A9-7C0058BF9292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1736911" y="23913353"/>
+          <a:ext cx="470648" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>212910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="円弧 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D8247B-5D39-469F-85D3-02D07A9CD816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20992521" flipH="1">
+          <a:off x="1647265" y="24215910"/>
+          <a:ext cx="1008529" cy="1837765"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187517</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>26189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233713</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>11449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="円弧 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFBAE56-FC0C-4530-AD6A-1049976B0360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="200601">
+          <a:off x="1554635" y="24264513"/>
+          <a:ext cx="729754" cy="1867848"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163606</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>186027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85173</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99D029B-1574-47C2-A555-B9BAD2651760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1432113" y="25228932"/>
+          <a:ext cx="1075764" cy="878541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298074</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>40339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7410FB-50D2-4356-A71F-E138D9DE1D6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1508309" y="25376840"/>
+          <a:ext cx="956985" cy="643219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656663</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>73960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>443752</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="楕円 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE0EE6C-D4B3-4047-80CA-D06277255723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4758016" y="23841636"/>
+          <a:ext cx="470648" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>597328</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>139179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238739</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>112295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="円弧 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5930F4EE-1EB2-4DF6-9F9C-6638FAD142D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1754121" flipH="1">
+          <a:off x="4015122" y="23906855"/>
+          <a:ext cx="1008529" cy="1855705"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17737</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>34960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506324</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>70864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="円弧 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A6865-CE4F-4B3C-AFB9-F9F114B2B1C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2971659">
+          <a:off x="3757123" y="23716368"/>
+          <a:ext cx="1212522" cy="1855705"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>551330</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>69486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>203956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78FE08AE-57E6-470A-BF2D-AF3853381E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7969517">
+          <a:off x="3186954" y="25112391"/>
+          <a:ext cx="1075764" cy="878541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13445</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>125504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>656664</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="正方形/長方形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C09CC79-2060-4FB7-A32F-A7E0DC59CC9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18850022">
+          <a:off x="3274356" y="25226681"/>
+          <a:ext cx="956985" cy="643219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>372034</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>170331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>159123</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="楕円 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E9CB59-DABB-4486-834A-3C2A8182C184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8574740" y="23938007"/>
+          <a:ext cx="470648" cy="425823"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317200</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>197357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596185</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>6323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="円弧 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC227E79-AB94-49B7-BD7B-100642E52F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6487976">
+          <a:off x="7365386" y="23281788"/>
+          <a:ext cx="1220908" cy="1646103"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457519</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>166481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>629273</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>22099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="円弧 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379CF87B-C0FE-4EAF-8C8F-E5DC24EE6F03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4310723" flipH="1">
+          <a:off x="7193439" y="23563178"/>
+          <a:ext cx="1738207" cy="1538872"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>150</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>40723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="矢印: 右 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A38887B-3CD2-44C6-A583-E978C6EACA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2846294" y="24440029"/>
+          <a:ext cx="571650" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>623197</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>181917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="矢印: 右 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A299FEE1-23CB-40CD-831C-D9F54DAD7A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5520018" y="24581223"/>
+          <a:ext cx="571650" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>208438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>145685</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC97036-4A42-4600-89B3-4CB6E46A33BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6297706" y="23740791"/>
+          <a:ext cx="1075764" cy="878541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>210668</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>121021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>484094</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>58269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="正方形/長方形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F7DDA15-7BFF-4AE2-AA84-6E60F4D41296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362697" y="23888697"/>
+          <a:ext cx="956985" cy="643219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354106</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354108</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直線矢印コネクタ 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A33E78D-1084-4484-934F-704C4D17D878}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4455459" y="18978283"/>
+          <a:ext cx="2" cy="818029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>394448</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>147919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線矢印コネクタ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A2CAC8-118F-4F72-A0DE-14C0CE68EE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495801" y="18973801"/>
+          <a:ext cx="3482787" cy="8964"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="88900">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369792</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>168091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>481851</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>188263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBE30AA-727E-4545-ACE0-45C4A0CB1640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5637677" y="27688618"/>
+          <a:ext cx="1196790" cy="2162735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47061</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79F69CBF-5068-46F1-872D-4D07B58950B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5515532" y="28395705"/>
+          <a:ext cx="1499350" cy="813547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>100855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="楕円 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04C9C64F-328A-4449-B2B5-B03070E7AAAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5838265" y="28014708"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>51550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85166</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>96373</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="楕円 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770B7D09-03E2-4BD5-9D6F-857E0323AC54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5844989" y="27494756"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>248771</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>114304</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47066</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>159127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="楕円 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4640C663-473B-46CB-B09F-C74326BD7577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5806889" y="26851539"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>221877</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>98617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20172</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>143440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="楕円 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87731529-3D33-48CA-821B-8DBA0F6F7622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5779995" y="28483117"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>49311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26896</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>94135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="楕円 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59381134-C2E7-4D8B-83D4-9A085126B53B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5786719" y="27963164"/>
+          <a:ext cx="986118" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>22419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>672355</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>67242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="楕円 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69F2AEC-6569-4752-8EF4-BAD3C28297ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5748619" y="25112390"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32257</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>58715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>569606</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="円弧 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A487B23-C5F1-4C98-8918-FA8F6A7D3C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1474890">
+          <a:off x="6184286" y="27120921"/>
+          <a:ext cx="1220908" cy="1646103"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>632892</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>199909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486683</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>198748</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="円弧 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370C794F-D9B2-494B-BEB5-8D4753349676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="1474890">
+          <a:off x="6101363" y="25379527"/>
+          <a:ext cx="1220908" cy="1646103"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15643327"/>
+            <a:gd name="adj2" fmla="val 3137999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="98425">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459438</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>224121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571497</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>8969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736FB8D0-9071-4A7B-97BD-7980887F9041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10512235" y="29862560"/>
+          <a:ext cx="1196789" cy="2162735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159121</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="正方形/長方形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499AB693-590C-4C62-9D00-061252CD251B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10412503" y="30524823"/>
+          <a:ext cx="1499350" cy="813547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>145680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>190503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="楕円 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D76E68F8-5718-4D27-9F92-5D7E9EFF35C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10724030" y="30177445"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351867</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>206196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150161</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>15695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="楕円 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA48BEB-138B-4EF4-8055-1D9975EF9E24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10694896" y="29531990"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398931</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>107582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197225</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="楕円 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B585B1F4-84B4-45F6-829B-854CD3A42F30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10741960" y="28727406"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313767</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>100861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>112061</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>145684</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="楕円 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB771767-8D1F-4C84-90B0-3E10523A16F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10656796" y="28014714"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>309285</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>118792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107579</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>163614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="楕円 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56757618-79C4-4918-B51C-2867B614872A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10652314" y="27326674"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="乗算記号 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D99588C-135C-48A8-9F6E-D4425FECAD44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11743766" y="29191324"/>
+          <a:ext cx="1456764" cy="1580030"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12496"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>179298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>224120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="楕円 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{460D5DCC-4C74-4CE5-A301-5F8A3A3C482A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1423146" y="35388180"/>
+          <a:ext cx="986117" cy="1165412"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="楕円 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE0707C-4D75-4C64-A92D-C0643322FBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6250943">
+          <a:off x="4168589" y="33942617"/>
+          <a:ext cx="986117" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349627</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>89651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>91894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="楕円 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5862BC75-80E9-4151-9B0A-2EF231FB9FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2431677" y="37239395"/>
+          <a:ext cx="708213" cy="770962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>179298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>224120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="楕円 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457B6AFF-3E1A-4FEA-A247-628E808A857F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4157383" y="34446884"/>
+          <a:ext cx="986116" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="楕円 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7F723E-4779-46F0-91B4-605451A3AB80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6250943">
+          <a:off x="4168589" y="33942617"/>
+          <a:ext cx="986117" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649940</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>179298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>224120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="楕円 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85676B1-7624-4578-8F0F-7CE956B8329B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4157383" y="34446884"/>
+          <a:ext cx="986116" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="楕円 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AB6ADF-4399-4512-B23E-ADD07CEF660E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6250943">
+          <a:off x="4168589" y="33942617"/>
+          <a:ext cx="986117" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466166</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>85169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264461</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>129990</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="楕円 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5FB23B-1CF8-409F-8F52-175698994D9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3973609" y="35294049"/>
+          <a:ext cx="986116" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>4</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369793</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="楕円 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB3D63D-87E9-4416-856B-2582ACD6CA70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4078941" y="34502914"/>
+          <a:ext cx="986116" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="楕円 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7110A5-B71B-4BB5-B780-7246D9A049F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6250943">
+          <a:off x="4168589" y="33942617"/>
+          <a:ext cx="986117" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>461686</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>201718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>203960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="楕円 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7F178C-49E1-4976-A97D-3C5B3594CFAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8012207" y="37586785"/>
+          <a:ext cx="708213" cy="770962"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="矢印: 右 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE4E9E1-2A7A-4EC0-900A-4937CE0713B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5647765" y="34693411"/>
+          <a:ext cx="1255060" cy="2084295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>300319</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>177061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98615</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>221885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="楕円 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF910C6-2754-42A3-8114-32616BDBD5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9959791" y="34209325"/>
+          <a:ext cx="986118" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141192</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>623047</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="楕円 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B418A34-FD8B-4FF6-8C24-B180A3ACFDC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6250943">
+          <a:off x="13218458" y="34935457"/>
+          <a:ext cx="986117" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>591672</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>199474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389968</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>8974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="楕円 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA7E4DC-A8BF-488D-972D-39804A8941F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10251144" y="34937708"/>
+          <a:ext cx="986118" cy="1165413"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D59993AC-87F3-4E98-B9B4-B94B4957BDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12068735" y="34962353"/>
+          <a:ext cx="1053353" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>410135</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96370</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="直線コネクタ 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7663D1F-0180-44AB-9D17-3BE240D7A3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12030635" y="35114753"/>
+          <a:ext cx="1053353" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>405652</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91887</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>226359</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="直線コネクタ 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A051B5-7F55-41F8-9704-F9CA8B174295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12026152" y="35345594"/>
+          <a:ext cx="1053353" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>73962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>411102</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>194986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="正方形/長方形 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BCEE32-FFAD-4CB4-96C7-735BA05E8287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7142472" y="14872927"/>
+          <a:ext cx="610881" cy="894237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253255</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>298079</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>77395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="正方形/長方形 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A716E7-C850-4AE5-9253-3423CB08A794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7088843" y="14507134"/>
+          <a:ext cx="728383" cy="395643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>22798</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="245" name="図 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF713CF-DAEE-4171-846F-D74B7FCBD5A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18819169" flipH="1">
+          <a:off x="7079874" y="14229229"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>567017</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>96372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97337</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>217396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="正方形/長方形 245">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F5DAE3-187C-4137-B55E-A4789697962A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8922606" y="14298224"/>
+          <a:ext cx="591671" cy="897438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>84774</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>213298</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="図 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CF2B974-49BA-41FA-A255-D3CC3E80D4E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="18819169" flipH="1">
+          <a:off x="8884020" y="14184405"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60396</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605384</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11212</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="矢印: 右 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4DAADB-ED2E-4744-937C-DBF8A0EA2E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5112256" y="13874996"/>
+          <a:ext cx="1378209" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56497</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>235225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>601485</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>207724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="矢印: 右 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C7EA92-5A2E-43DC-8A58-63C4DA32B2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4987580" y="15362672"/>
+          <a:ext cx="1619764" cy="544988"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>111099</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>169432</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="矢印: 右 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C854C59-C533-41C3-8E05-EB562EE7AAF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10316456" y="15035734"/>
+          <a:ext cx="2610329" cy="564198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523794</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>122787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54114</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>243811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="正方形/長方形 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702A6201-34C4-4C95-B092-DB3B09EB6C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13590656" y="14923354"/>
+          <a:ext cx="610881" cy="891034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609757</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>63876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>654581</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>233800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="正方形/長方形 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7587F9B4-CA66-4B86-B4B5-332D89218F94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="8995625">
+          <a:off x="13536543" y="14759590"/>
+          <a:ext cx="725181" cy="414853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>83244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>136473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="楕円 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648A8731-8362-433D-9099-AB2C449DEE93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560295" y="16248530"/>
+          <a:ext cx="467445" cy="543086"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199944</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>103897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413824</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>224921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="正方形/長方形 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF447CB5-1E7D-405A-862A-70109E6B256C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13268408" y="14902862"/>
+          <a:ext cx="610881" cy="894237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="フリーフォーム: 図形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6E4471-972F-409B-9A00-5619BF319303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14423571" y="14165036"/>
+          <a:ext cx="435429" cy="1224643"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 27215 w 435429"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1224643"/>
+            <a:gd name="connsiteX1" fmla="*/ 136072 w 435429"/>
+            <a:gd name="connsiteY1" fmla="*/ 176893 h 1224643"/>
+            <a:gd name="connsiteX2" fmla="*/ 163286 w 435429"/>
+            <a:gd name="connsiteY2" fmla="*/ 217714 h 1224643"/>
+            <a:gd name="connsiteX3" fmla="*/ 190500 w 435429"/>
+            <a:gd name="connsiteY3" fmla="*/ 272143 h 1224643"/>
+            <a:gd name="connsiteX4" fmla="*/ 258536 w 435429"/>
+            <a:gd name="connsiteY4" fmla="*/ 367393 h 1224643"/>
+            <a:gd name="connsiteX5" fmla="*/ 285750 w 435429"/>
+            <a:gd name="connsiteY5" fmla="*/ 462643 h 1224643"/>
+            <a:gd name="connsiteX6" fmla="*/ 299358 w 435429"/>
+            <a:gd name="connsiteY6" fmla="*/ 503464 h 1224643"/>
+            <a:gd name="connsiteX7" fmla="*/ 285750 w 435429"/>
+            <a:gd name="connsiteY7" fmla="*/ 612321 h 1224643"/>
+            <a:gd name="connsiteX8" fmla="*/ 122465 w 435429"/>
+            <a:gd name="connsiteY8" fmla="*/ 557893 h 1224643"/>
+            <a:gd name="connsiteX9" fmla="*/ 95250 w 435429"/>
+            <a:gd name="connsiteY9" fmla="*/ 517071 h 1224643"/>
+            <a:gd name="connsiteX10" fmla="*/ 95250 w 435429"/>
+            <a:gd name="connsiteY10" fmla="*/ 367393 h 1224643"/>
+            <a:gd name="connsiteX11" fmla="*/ 231322 w 435429"/>
+            <a:gd name="connsiteY11" fmla="*/ 381000 h 1224643"/>
+            <a:gd name="connsiteX12" fmla="*/ 272143 w 435429"/>
+            <a:gd name="connsiteY12" fmla="*/ 394607 h 1224643"/>
+            <a:gd name="connsiteX13" fmla="*/ 326572 w 435429"/>
+            <a:gd name="connsiteY13" fmla="*/ 489857 h 1224643"/>
+            <a:gd name="connsiteX14" fmla="*/ 421822 w 435429"/>
+            <a:gd name="connsiteY14" fmla="*/ 598714 h 1224643"/>
+            <a:gd name="connsiteX15" fmla="*/ 435429 w 435429"/>
+            <a:gd name="connsiteY15" fmla="*/ 639535 h 1224643"/>
+            <a:gd name="connsiteX16" fmla="*/ 408215 w 435429"/>
+            <a:gd name="connsiteY16" fmla="*/ 857250 h 1224643"/>
+            <a:gd name="connsiteX17" fmla="*/ 367393 w 435429"/>
+            <a:gd name="connsiteY17" fmla="*/ 898071 h 1224643"/>
+            <a:gd name="connsiteX18" fmla="*/ 340179 w 435429"/>
+            <a:gd name="connsiteY18" fmla="*/ 979714 h 1224643"/>
+            <a:gd name="connsiteX19" fmla="*/ 258536 w 435429"/>
+            <a:gd name="connsiteY19" fmla="*/ 1061357 h 1224643"/>
+            <a:gd name="connsiteX20" fmla="*/ 163286 w 435429"/>
+            <a:gd name="connsiteY20" fmla="*/ 1115785 h 1224643"/>
+            <a:gd name="connsiteX21" fmla="*/ 95250 w 435429"/>
+            <a:gd name="connsiteY21" fmla="*/ 1156607 h 1224643"/>
+            <a:gd name="connsiteX22" fmla="*/ 68036 w 435429"/>
+            <a:gd name="connsiteY22" fmla="*/ 1197428 h 1224643"/>
+            <a:gd name="connsiteX23" fmla="*/ 27215 w 435429"/>
+            <a:gd name="connsiteY23" fmla="*/ 1211035 h 1224643"/>
+            <a:gd name="connsiteX24" fmla="*/ 0 w 435429"/>
+            <a:gd name="connsiteY24" fmla="*/ 1224643 h 1224643"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="435429" h="1224643">
+              <a:moveTo>
+                <a:pt x="27215" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="133529" y="159472"/>
+                <a:pt x="30084" y="247"/>
+                <a:pt x="136072" y="176893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="144486" y="190916"/>
+                <a:pt x="155172" y="203515"/>
+                <a:pt x="163286" y="217714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="173350" y="235326"/>
+                <a:pt x="179749" y="254942"/>
+                <a:pt x="190500" y="272143"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="205919" y="296814"/>
+                <a:pt x="244137" y="338594"/>
+                <a:pt x="258536" y="367393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="269412" y="389145"/>
+                <a:pt x="279936" y="442295"/>
+                <a:pt x="285750" y="462643"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="289690" y="476434"/>
+                <a:pt x="294822" y="489857"/>
+                <a:pt x="299358" y="503464"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="294822" y="539750"/>
+                <a:pt x="315708" y="591351"/>
+                <a:pt x="285750" y="612321"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="220301" y="658135"/>
+                <a:pt x="156655" y="598921"/>
+                <a:pt x="122465" y="557893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="111995" y="545329"/>
+                <a:pt x="104322" y="530678"/>
+                <a:pt x="95250" y="517071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="87321" y="485354"/>
+                <a:pt x="55921" y="388845"/>
+                <a:pt x="95250" y="367393"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="135268" y="345565"/>
+                <a:pt x="185965" y="376464"/>
+                <a:pt x="231322" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="244929" y="385536"/>
+                <a:pt x="259844" y="387228"/>
+                <a:pt x="272143" y="394607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="316875" y="421446"/>
+                <a:pt x="294128" y="443508"/>
+                <a:pt x="326572" y="489857"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="388642" y="578529"/>
+                <a:pt x="385755" y="526581"/>
+                <a:pt x="421822" y="598714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="428236" y="611543"/>
+                <a:pt x="430893" y="625928"/>
+                <a:pt x="435429" y="639535"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="426358" y="712107"/>
+                <a:pt x="426828" y="786522"/>
+                <a:pt x="408215" y="857250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="403318" y="875860"/>
+                <a:pt x="376738" y="881249"/>
+                <a:pt x="367393" y="898071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="353462" y="923147"/>
+                <a:pt x="360463" y="959430"/>
+                <a:pt x="340179" y="979714"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="312965" y="1006928"/>
+                <a:pt x="290559" y="1040008"/>
+                <a:pt x="258536" y="1061357"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="172996" y="1118383"/>
+                <a:pt x="266875" y="1058236"/>
+                <a:pt x="163286" y="1115785"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="140167" y="1128629"/>
+                <a:pt x="117929" y="1143000"/>
+                <a:pt x="95250" y="1156607"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="86179" y="1170214"/>
+                <a:pt x="80806" y="1187212"/>
+                <a:pt x="68036" y="1197428"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="56836" y="1206388"/>
+                <a:pt x="40532" y="1205708"/>
+                <a:pt x="27215" y="1211035"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17798" y="1214802"/>
+                <a:pt x="9072" y="1220107"/>
+                <a:pt x="0" y="1224643"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="57150"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>154642</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>84204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>158545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="矢印: 右 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F0F58C-7CA4-4797-B483-2D11912C7C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15122499" y="15024847"/>
+          <a:ext cx="1070001" cy="564198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 33551"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>107415</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>321294</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>227643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="正方形/長方形 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661B9A81-6E92-4791-8DDD-C1B207DC92E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16577664" y="14905584"/>
+          <a:ext cx="610881" cy="894237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>480182</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>231707</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="636126" cy="810163"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="278" name="図 277">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6DAF170-E7F9-42B3-ACB7-B55DFAED7FEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="7085322" flipH="1">
+          <a:off x="14000306" y="13544869"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>338601</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>116762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>383424</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>182692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="正方形/長方形 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E479903-382E-48BE-AE96-F234475AC93E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16667172" y="14567548"/>
+          <a:ext cx="725181" cy="555787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>327848</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>198984</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="280" name="図 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A15596F6-52A1-408A-B6E7-07BE3CB8D2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="315493" flipH="1">
+          <a:off x="16656419" y="14159913"/>
+          <a:ext cx="810163" cy="636126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232599</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76519</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="810163" cy="636126"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="281" name="図 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D5F020-8906-4AA5-9778-46142E3AF4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="21254470" flipH="1">
+          <a:off x="16561170" y="13792519"/>
           <a:ext cx="810163" cy="636126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7116,10 +12877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y65" sqref="Y65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7209,80 +12970,232 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="65" spans="1:25">
+      <c r="J65" t="s">
+        <v>64</v>
+      </c>
+      <c r="N65" t="s">
+        <v>63</v>
+      </c>
+      <c r="T65" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="H79" t="s">
+    <row r="78" spans="1:25">
+      <c r="H78" t="s">
         <v>27</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="81" spans="1:13">
+      <c r="M81" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="87" spans="1:13">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="K90" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="K92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="F98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="T128" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="T129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="I135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="I136" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
+      <c r="A139" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="A143" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
